--- a/0_1_Output_Data/4_ifo_qoq_error_series_20221_21001/ifo_qoq_errors_first_eval_20221_21001.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series_20221_21001/ifo_qoq_errors_first_eval_20221_21001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Q0</t>
   </si>
@@ -44,6 +44,117 @@
   </si>
   <si>
     <t>Q9</t>
+  </si>
+  <si>
+    <t>2007-11-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2008-11-13 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2009-11-13 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-05-12 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2010-11-12 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-05-13 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2011-11-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2012-11-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2013-11-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2014-11-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-05-13 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2015-11-13 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-05-13 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2016-11-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-05-12 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2017-11-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-02-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-08-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2018-11-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-02-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-08-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2019-11-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-02-14 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-05-15 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-08-25 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-11-24 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-02-24 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-05-25 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-08-24 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2021-11-25 00:00:00_diff</t>
   </si>
   <si>
     <t>2022-02-25 00:00:00_diff</t>
@@ -446,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,28 +600,19 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.2298806514884979</v>
+        <v>0.1839449541284232</v>
       </c>
       <c r="C2">
-        <v>0.8526683129551109</v>
+        <v>-1.303044651843698</v>
       </c>
       <c r="D2">
-        <v>0.6965152533949663</v>
+        <v>0.7957634757526395</v>
       </c>
       <c r="E2">
-        <v>1.545191941255428</v>
+        <v>0.8744122965642023</v>
       </c>
       <c r="F2">
-        <v>1.225993306361975</v>
-      </c>
-      <c r="G2">
-        <v>0.7182674109717584</v>
-      </c>
-      <c r="H2">
-        <v>0.6131542380653776</v>
-      </c>
-      <c r="I2">
-        <v>0.6331128777533094</v>
+        <v>2.507941123023818</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -518,25 +620,25 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2402701443875122</v>
+        <v>0.1457634757526623</v>
       </c>
       <c r="C3">
-        <v>0.7703347161220313</v>
+        <v>0.7744122965641937</v>
       </c>
       <c r="D3">
-        <v>1.835306103547281</v>
+        <v>2.467941123023811</v>
       </c>
       <c r="E3">
-        <v>1.375226743644659</v>
+        <v>4.12576201096553</v>
       </c>
       <c r="F3">
-        <v>0.821187593955504</v>
+        <v>-0.01752140864044649</v>
       </c>
       <c r="G3">
-        <v>0.7472188330748641</v>
+        <v>-0.4530390842034671</v>
       </c>
       <c r="H3">
-        <v>0.7070636170015632</v>
+        <v>0.2404915850527668</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,34 +646,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.3601488926112106</v>
+        <v>1.20794112302382</v>
       </c>
       <c r="C4">
-        <v>0.2553061035472806</v>
+        <v>3.150762010965521</v>
       </c>
       <c r="D4">
-        <v>-0.06477325635534092</v>
+        <v>-0.7175214086404351</v>
       </c>
       <c r="E4">
-        <v>-0.01855976243503714</v>
+        <v>-1.028039084203484</v>
       </c>
       <c r="F4">
-        <v>0.6096176279974082</v>
-      </c>
-      <c r="G4">
-        <v>0.7670636170015632</v>
-      </c>
-      <c r="H4">
-        <v>0.2964041604754924</v>
-      </c>
-      <c r="I4">
-        <v>0.5467620410109615</v>
-      </c>
-      <c r="J4">
-        <v>0.3347871831659499</v>
-      </c>
-      <c r="K4">
-        <v>0.6206497229122814</v>
+        <v>-0.2595084149472189</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,31 +666,25 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.1453061035472806</v>
+        <v>-1.017521408640446</v>
       </c>
       <c r="C5">
-        <v>-0.05477325635534092</v>
+        <v>-0.5280390842034699</v>
       </c>
       <c r="D5">
-        <v>0.05097186598095012</v>
+        <v>-0.3095084149472304</v>
       </c>
       <c r="E5">
-        <v>0.6813581175453611</v>
+        <v>-0.4613515565679706</v>
       </c>
       <c r="F5">
-        <v>0.7891470860972862</v>
+        <v>-2.182091798344627</v>
       </c>
       <c r="G5">
-        <v>0.2057013640468817</v>
+        <v>-0.4480161645848688</v>
       </c>
       <c r="H5">
-        <v>0.4324787717588673</v>
-      </c>
-      <c r="I5">
-        <v>0.1941599749288416</v>
-      </c>
-      <c r="J5">
-        <v>0.4451524432442894</v>
+        <v>-0.1147970816233392</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,28 +692,19 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1273487862293673</v>
+        <v>0.4904915850527526</v>
       </c>
       <c r="C6">
-        <v>0.04630450333973575</v>
+        <v>0.2586484434320426</v>
       </c>
       <c r="D6">
-        <v>0.5849623173407428</v>
+        <v>-1.982091798344624</v>
       </c>
       <c r="E6">
-        <v>0.8484374385026132</v>
+        <v>-0.498016164584866</v>
       </c>
       <c r="F6">
-        <v>0.312800145126382</v>
-      </c>
-      <c r="G6">
-        <v>0.4924727979357907</v>
-      </c>
-      <c r="H6">
-        <v>0.1829770333935032</v>
-      </c>
-      <c r="I6">
-        <v>0.4312815856628233</v>
+        <v>-0.06479708162335629</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,25 +712,25 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.1020880707435432</v>
+        <v>-1.082091798344633</v>
       </c>
       <c r="C7">
-        <v>0.3096176279974082</v>
+        <v>-0.198016164584883</v>
       </c>
       <c r="D7">
-        <v>0.7070636170015632</v>
+        <v>-0.06479708162335629</v>
       </c>
       <c r="E7">
-        <v>0.2864041604754924</v>
+        <v>-1.199182264219526</v>
       </c>
       <c r="F7">
-        <v>0.5267620410109616</v>
+        <v>0.2057776962582608</v>
       </c>
       <c r="G7">
-        <v>0.2247871831659499</v>
+        <v>-0.1530181086519004</v>
       </c>
       <c r="H7">
-        <v>0.5306497229122814</v>
+        <v>0.5818677821224053</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -666,31 +738,19 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.0503823720025918</v>
+        <v>0.4352029183766609</v>
       </c>
       <c r="C8">
-        <v>0.6070636170015632</v>
+        <v>-1.199182264219509</v>
       </c>
       <c r="D8">
-        <v>0.2664041604754924</v>
+        <v>0.280777696258258</v>
       </c>
       <c r="E8">
-        <v>0.6279097355159999</v>
+        <v>-0.00301810865190888</v>
       </c>
       <c r="F8">
-        <v>0.3979680775074187</v>
-      </c>
-      <c r="G8">
-        <v>0.5813332769805371</v>
-      </c>
-      <c r="H8">
-        <v>-0.07991706325214298</v>
-      </c>
-      <c r="I8">
-        <v>0.535526637811788</v>
-      </c>
-      <c r="J8">
-        <v>0.2150495036779461</v>
+        <v>0.6818677821223996</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -698,28 +758,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.3310636170015632</v>
+        <v>0.280777696258258</v>
       </c>
       <c r="C9">
-        <v>0.08037550528413179</v>
+        <v>-0.00301810865190888</v>
       </c>
       <c r="D9">
-        <v>0.4669984892513961</v>
+        <v>0.7818677821223996</v>
       </c>
       <c r="E9">
-        <v>0.3339617829755114</v>
+        <v>0.08984239774072844</v>
       </c>
       <c r="F9">
-        <v>0.6407790808091178</v>
+        <v>0.3292907417433573</v>
       </c>
       <c r="G9">
-        <v>-0.01213374733938011</v>
+        <v>0.366018718502528</v>
       </c>
       <c r="H9">
-        <v>0.5766911554241068</v>
-      </c>
-      <c r="I9">
-        <v>0.24</v>
+        <v>1.192512792889843</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -727,25 +784,19 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2961058799880114</v>
+        <v>-0.01813221787760042</v>
       </c>
       <c r="C10">
-        <v>0.2811199022592499</v>
+        <v>-0.4101576022592716</v>
       </c>
       <c r="D10">
-        <v>0.4061437322588163</v>
+        <v>-0.0707092582566427</v>
       </c>
       <c r="E10">
-        <v>0.7326419872114158</v>
+        <v>0.066018718502528</v>
       </c>
       <c r="F10">
-        <v>0.03212331069211072</v>
-      </c>
-      <c r="G10">
-        <v>0.6272238950261231</v>
-      </c>
-      <c r="H10">
-        <v>0.3087982760018804</v>
+        <v>0.8925127928898435</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -753,22 +804,25 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.3250145629684917</v>
+        <v>-0.1707092582566427</v>
       </c>
       <c r="C11">
-        <v>0.3247871831659499</v>
+        <v>-0.133981281497472</v>
       </c>
       <c r="D11">
-        <v>0.7206497229122815</v>
+        <v>0.8925127928898435</v>
       </c>
       <c r="E11">
-        <v>0.04831977022499523</v>
+        <v>0.3367145827682783</v>
       </c>
       <c r="F11">
-        <v>0.6666911554241067</v>
+        <v>-0.3214356569573426</v>
       </c>
       <c r="G11">
-        <v>0.32</v>
+        <v>0.1776792908944405</v>
+      </c>
+      <c r="H11">
+        <v>0.1162427487728631</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -776,19 +830,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.1523883420589938</v>
+        <v>0.2925127928898435</v>
       </c>
       <c r="C12">
-        <v>0.4106497229122814</v>
+        <v>0.1367145827682783</v>
       </c>
       <c r="D12">
-        <v>-0.09868022977500479</v>
+        <v>-0.4214356569573426</v>
       </c>
       <c r="E12">
-        <v>0.6966911554241066</v>
+        <v>0.07767929089444053</v>
       </c>
       <c r="F12">
-        <v>0.4476495795507702</v>
+        <v>0.1162427487728631</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -796,16 +850,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.4148795034612291</v>
+        <v>0.1785643430426489</v>
       </c>
       <c r="C13">
-        <v>-0.2119161209897164</v>
+        <v>0.09767929089444222</v>
       </c>
       <c r="D13">
-        <v>0.4271648845785767</v>
+        <v>0.0162427487728688</v>
       </c>
       <c r="E13">
-        <v>0.1088966743764388</v>
+        <v>-0.4179231863442348</v>
+      </c>
+      <c r="F13">
+        <v>0.6108782057348251</v>
+      </c>
+      <c r="G13">
+        <v>0.4337623012868961</v>
+      </c>
+      <c r="H13">
+        <v>-0.1996974281391924</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -813,13 +876,19 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.1722430723603913</v>
+        <v>-0.0837572512271369</v>
       </c>
       <c r="C14">
-        <v>0.4775315349050862</v>
+        <v>-0.3179231863442404</v>
       </c>
       <c r="D14">
-        <v>0.1461563307127136</v>
+        <v>0.6608782057348365</v>
+      </c>
+      <c r="E14">
+        <v>0.5337623012869103</v>
+      </c>
+      <c r="F14">
+        <v>-0.09969742813917826</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -827,10 +896,25 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.32386998960715</v>
+        <v>0.4608782057348194</v>
       </c>
       <c r="C15">
-        <v>0.09547648014918764</v>
+        <v>0.333762301286916</v>
+      </c>
+      <c r="D15">
+        <v>-0.2496974281391897</v>
+      </c>
+      <c r="E15">
+        <v>0.2476995305164363</v>
+      </c>
+      <c r="F15">
+        <v>0.08136257582828943</v>
+      </c>
+      <c r="G15">
+        <v>0.2040735922691153</v>
+      </c>
+      <c r="H15">
+        <v>0.2513073288242555</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -838,6 +922,1001 @@
         <v>24</v>
       </c>
       <c r="B16">
+        <v>-0.4996974281391754</v>
+      </c>
+      <c r="C16">
+        <v>0.1476995305164278</v>
+      </c>
+      <c r="D16">
+        <v>-0.0186374241717191</v>
+      </c>
+      <c r="E16">
+        <v>0.1040735922691067</v>
+      </c>
+      <c r="F16">
+        <v>0.151307328824247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0.1813625758282837</v>
+      </c>
+      <c r="C17">
+        <v>0.1040735922691067</v>
+      </c>
+      <c r="D17">
+        <v>0.131307328824251</v>
+      </c>
+      <c r="E17">
+        <v>-0.2653114026982006</v>
+      </c>
+      <c r="F17">
+        <v>-0.01125936757448054</v>
+      </c>
+      <c r="G17">
+        <v>0.2088650222990921</v>
+      </c>
+      <c r="H17">
+        <v>-0.0269234262875761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.2013073288242442</v>
+      </c>
+      <c r="C18">
+        <v>-0.216311402698194</v>
+      </c>
+      <c r="D18">
+        <v>0.03774063242552606</v>
+      </c>
+      <c r="E18">
+        <v>0.2578650222990987</v>
+      </c>
+      <c r="F18">
+        <v>0.02207657371243049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-0.07125936757448281</v>
+      </c>
+      <c r="C19">
+        <v>0.2488650222990841</v>
+      </c>
+      <c r="D19">
+        <v>0.01307657371241594</v>
+      </c>
+      <c r="E19">
+        <v>-0.1258961837583767</v>
+      </c>
+      <c r="F19">
+        <v>-0.1364567140176977</v>
+      </c>
+      <c r="G19">
+        <v>-0.3441758241758278</v>
+      </c>
+      <c r="H19">
+        <v>-0.126966924700923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.02307657371240679</v>
+      </c>
+      <c r="C20">
+        <v>-0.2058961837583608</v>
+      </c>
+      <c r="D20">
+        <v>-0.2164567140176819</v>
+      </c>
+      <c r="E20">
+        <v>-0.4241758241758119</v>
+      </c>
+      <c r="F20">
+        <v>-0.2069669247009072</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>0.0835432859823011</v>
+      </c>
+      <c r="C21">
+        <v>-0.2241758241758233</v>
+      </c>
+      <c r="D21">
+        <v>-0.1069669247009271</v>
+      </c>
+      <c r="E21">
+        <v>0.1527192445571372</v>
+      </c>
+      <c r="F21">
+        <v>-0.00158488927486683</v>
+      </c>
+      <c r="G21">
+        <v>0.6488415319443164</v>
+      </c>
+      <c r="H21">
+        <v>0.4326764833261072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-0.05696692470090148</v>
+      </c>
+      <c r="C22">
+        <v>0.2027192445571344</v>
+      </c>
+      <c r="D22">
+        <v>0.04841511072513038</v>
+      </c>
+      <c r="E22">
+        <v>0.6988415319443135</v>
+      </c>
+      <c r="F22">
+        <v>0.4826764833261045</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0.4027192445571373</v>
+      </c>
+      <c r="C23">
+        <v>0.1634151107251537</v>
+      </c>
+      <c r="D23">
+        <v>0.7478415319443343</v>
+      </c>
+      <c r="E23">
+        <v>0.4826764833261045</v>
+      </c>
+      <c r="F23">
+        <v>0.1756473542911566</v>
+      </c>
+      <c r="G23">
+        <v>0.5746895714685679</v>
+      </c>
+      <c r="H23">
+        <v>0.4158406583130553</v>
+      </c>
+      <c r="I23">
+        <v>0.4720044792832994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-0.1515848892748725</v>
+      </c>
+      <c r="C24">
+        <v>0.5988415319443334</v>
+      </c>
+      <c r="D24">
+        <v>0.3826764833261244</v>
+      </c>
+      <c r="E24">
+        <v>0.1246473542911689</v>
+      </c>
+      <c r="F24">
+        <v>0.5746895714685679</v>
+      </c>
+      <c r="G24">
+        <v>0.3648406583130818</v>
+      </c>
+      <c r="H24">
+        <v>0.4210044792833259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>0.6988415319442993</v>
+      </c>
+      <c r="C25">
+        <v>0.4826764833261045</v>
+      </c>
+      <c r="D25">
+        <v>0.1246473542911689</v>
+      </c>
+      <c r="E25">
+        <v>0.5746895714685679</v>
+      </c>
+      <c r="F25">
+        <v>0.3648406583130818</v>
+      </c>
+      <c r="G25">
+        <v>0.3220044792833222</v>
+      </c>
+      <c r="H25">
+        <v>2.521807318894689</v>
+      </c>
+      <c r="I25">
+        <v>9.990957649751982</v>
+      </c>
+      <c r="J25">
+        <v>-8.180304150385487</v>
+      </c>
+      <c r="K25">
+        <v>-0.04063260340633762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.1826764833261187</v>
+      </c>
+      <c r="C26">
+        <v>-0.02435264570883766</v>
+      </c>
+      <c r="D26">
+        <v>0.4746895714685821</v>
+      </c>
+      <c r="E26">
+        <v>0.2158406583130695</v>
+      </c>
+      <c r="F26">
+        <v>0.2720044792833136</v>
+      </c>
+      <c r="G26">
+        <v>2.521807318894706</v>
+      </c>
+      <c r="H26">
+        <v>9.990957649752</v>
+      </c>
+      <c r="I26">
+        <v>-8.180304150385469</v>
+      </c>
+      <c r="J26">
+        <v>-0.04063260340632052</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>-0.3243526457088434</v>
+      </c>
+      <c r="C27">
+        <v>0.374689571468565</v>
+      </c>
+      <c r="D27">
+        <v>0.2658406583130781</v>
+      </c>
+      <c r="E27">
+        <v>0.3220044792833222</v>
+      </c>
+      <c r="F27">
+        <v>2.571807318894714</v>
+      </c>
+      <c r="G27">
+        <v>10.04095764975201</v>
+      </c>
+      <c r="H27">
+        <v>-8.130304150385461</v>
+      </c>
+      <c r="I27">
+        <v>0.009367396593688015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>-0.02531042853141789</v>
+      </c>
+      <c r="C28">
+        <v>0.2158406583130695</v>
+      </c>
+      <c r="D28">
+        <v>0.2720044792833136</v>
+      </c>
+      <c r="E28">
+        <v>2.521807318894706</v>
+      </c>
+      <c r="F28">
+        <v>9.990957649752</v>
+      </c>
+      <c r="G28">
+        <v>-8.180304150385469</v>
+      </c>
+      <c r="H28">
+        <v>-0.04063260340632052</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>-0.1841593416869248</v>
+      </c>
+      <c r="C29">
+        <v>0.07200447928330793</v>
+      </c>
+      <c r="D29">
+        <v>2.471807318894706</v>
+      </c>
+      <c r="E29">
+        <v>10.039957649752</v>
+      </c>
+      <c r="F29">
+        <v>-8.131304150385466</v>
+      </c>
+      <c r="G29">
+        <v>0.008367396593683296</v>
+      </c>
+      <c r="H29">
+        <v>2.155937868393076</v>
+      </c>
+      <c r="I29">
+        <v>-1.284092118130254</v>
+      </c>
+      <c r="J29">
+        <v>-1.345266296544455</v>
+      </c>
+      <c r="K29">
+        <v>0.6961896406117992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>0.05200447928335454</v>
+      </c>
+      <c r="C30">
+        <v>2.461807318894701</v>
+      </c>
+      <c r="D30">
+        <v>9.980957649751991</v>
+      </c>
+      <c r="E30">
+        <v>-8.150304150385457</v>
+      </c>
+      <c r="F30">
+        <v>-0.0006326034063171004</v>
+      </c>
+      <c r="G30">
+        <v>2.206937868393077</v>
+      </c>
+      <c r="H30">
+        <v>-1.233092118130252</v>
+      </c>
+      <c r="I30">
+        <v>-1.314266296544464</v>
+      </c>
+      <c r="J30">
+        <v>0.6871896406117988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>2.3218073188947</v>
+      </c>
+      <c r="C31">
+        <v>5.19095764975197</v>
+      </c>
+      <c r="D31">
+        <v>-6.480304150385512</v>
+      </c>
+      <c r="E31">
+        <v>1.359367396593669</v>
+      </c>
+      <c r="F31">
+        <v>3.306937868393058</v>
+      </c>
+      <c r="G31">
+        <v>-0.63309211813023</v>
+      </c>
+      <c r="H31">
+        <v>-1.312092390567575</v>
+      </c>
+      <c r="I31">
+        <v>0.6891273091171759</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>-2.209042350248001</v>
+      </c>
+      <c r="C32">
+        <v>-1.580304150385469</v>
+      </c>
+      <c r="D32">
+        <v>3.459367396593679</v>
+      </c>
+      <c r="E32">
+        <v>4.006937868393072</v>
+      </c>
+      <c r="F32">
+        <v>-0.5330921181302579</v>
+      </c>
+      <c r="G32">
+        <v>-1.194266296544459</v>
+      </c>
+      <c r="H32">
+        <v>0.7471896406117955</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>-1.840304150385469</v>
+      </c>
+      <c r="C33">
+        <v>2.411488683553286</v>
+      </c>
+      <c r="D33">
+        <v>3.163673203886142</v>
+      </c>
+      <c r="E33">
+        <v>-0.8080921181302552</v>
+      </c>
+      <c r="F33">
+        <v>-1.194266296544473</v>
+      </c>
+      <c r="G33">
+        <v>0.7396069183282994</v>
+      </c>
+      <c r="H33">
+        <v>0.153842895948372</v>
+      </c>
+      <c r="I33">
+        <v>0.2501890872883032</v>
+      </c>
+      <c r="J33">
+        <v>-0.009555389810015302</v>
+      </c>
+      <c r="K33">
+        <v>0.8265776002125492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>-0.7406326034063262</v>
+      </c>
+      <c r="C34">
+        <v>2.39538184572016</v>
+      </c>
+      <c r="D34">
+        <v>0.966907881869751</v>
+      </c>
+      <c r="E34">
+        <v>-0.9882246039044738</v>
+      </c>
+      <c r="F34">
+        <v>0.9469416447868544</v>
+      </c>
+      <c r="G34">
+        <v>0.2285275052539781</v>
+      </c>
+      <c r="H34">
+        <v>0.2998780799059883</v>
+      </c>
+      <c r="I34">
+        <v>0.03125855291726826</v>
+      </c>
+      <c r="J34">
+        <v>0.8592436660644955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1.097457868393073</v>
+      </c>
+      <c r="C35">
+        <v>0.4233178818697558</v>
+      </c>
+      <c r="D35">
+        <v>0.1547337034555309</v>
+      </c>
+      <c r="E35">
+        <v>1.203649640611794</v>
+      </c>
+      <c r="F35">
+        <v>0.2516151035781544</v>
+      </c>
+      <c r="G35">
+        <v>0.3175001443875122</v>
+      </c>
+      <c r="H35">
+        <v>0.03275110738878939</v>
+      </c>
+      <c r="I35">
+        <v>0.8612761035472807</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>-0.323092118130242</v>
+      </c>
+      <c r="C36">
+        <v>1.865733703455543</v>
+      </c>
+      <c r="D36">
+        <v>1.847582543966432</v>
+      </c>
+      <c r="E36">
+        <v>0.2513274344176</v>
+      </c>
+      <c r="F36">
+        <v>0.3218253794872098</v>
+      </c>
+      <c r="G36">
+        <v>0.03045435555422921</v>
+      </c>
+      <c r="H36">
+        <v>0.8604183459774174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>-0.174266296544449</v>
+      </c>
+      <c r="C37">
+        <v>1.647189640611778</v>
+      </c>
+      <c r="D37">
+        <v>1.424595103578154</v>
+      </c>
+      <c r="E37">
+        <v>1.030270144387512</v>
+      </c>
+      <c r="F37">
+        <v>0.3098511073887893</v>
+      </c>
+      <c r="G37">
+        <v>0.9253061035472806</v>
+      </c>
+      <c r="H37">
+        <v>0.5952267436446591</v>
+      </c>
+      <c r="I37">
+        <v>0.2314402375649628</v>
+      </c>
+      <c r="J37">
+        <v>0.3396176279974082</v>
+      </c>
+      <c r="K37">
+        <v>0.4970636170015632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>-0.1928103593881966</v>
+      </c>
+      <c r="C38">
+        <v>-0.2454048964218456</v>
+      </c>
+      <c r="D38">
+        <v>2.200270144387512</v>
+      </c>
+      <c r="E38">
+        <v>1.349851107388789</v>
+      </c>
+      <c r="F38">
+        <v>1.245306103547281</v>
+      </c>
+      <c r="G38">
+        <v>0.8652267436446591</v>
+      </c>
+      <c r="H38">
+        <v>0.3014402375649629</v>
+      </c>
+      <c r="I38">
+        <v>0.3896176279974082</v>
+      </c>
+      <c r="J38">
+        <v>0.5470636170015633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>0.2298806514884979</v>
+      </c>
+      <c r="C39">
+        <v>0.8526683129551109</v>
+      </c>
+      <c r="D39">
+        <v>0.6965152533949663</v>
+      </c>
+      <c r="E39">
+        <v>1.545191941255428</v>
+      </c>
+      <c r="F39">
+        <v>1.225993306361975</v>
+      </c>
+      <c r="G39">
+        <v>0.7182674109717584</v>
+      </c>
+      <c r="H39">
+        <v>0.6131542380653776</v>
+      </c>
+      <c r="I39">
+        <v>0.6331128777533094</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>0.2402701443875122</v>
+      </c>
+      <c r="C40">
+        <v>0.7703347161220313</v>
+      </c>
+      <c r="D40">
+        <v>1.835306103547281</v>
+      </c>
+      <c r="E40">
+        <v>1.375226743644659</v>
+      </c>
+      <c r="F40">
+        <v>0.821187593955504</v>
+      </c>
+      <c r="G40">
+        <v>0.7472188330748641</v>
+      </c>
+      <c r="H40">
+        <v>0.7070636170015632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>-0.3601488926112106</v>
+      </c>
+      <c r="C41">
+        <v>0.2553061035472806</v>
+      </c>
+      <c r="D41">
+        <v>-0.06477325635534092</v>
+      </c>
+      <c r="E41">
+        <v>-0.01855976243503714</v>
+      </c>
+      <c r="F41">
+        <v>0.6096176279974082</v>
+      </c>
+      <c r="G41">
+        <v>0.7670636170015632</v>
+      </c>
+      <c r="H41">
+        <v>0.2964041604754924</v>
+      </c>
+      <c r="I41">
+        <v>0.5467620410109615</v>
+      </c>
+      <c r="J41">
+        <v>0.3347871831659499</v>
+      </c>
+      <c r="K41">
+        <v>0.6206497229122814</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0.1453061035472806</v>
+      </c>
+      <c r="C42">
+        <v>-0.05477325635534092</v>
+      </c>
+      <c r="D42">
+        <v>0.05097186598095012</v>
+      </c>
+      <c r="E42">
+        <v>0.6813581175453611</v>
+      </c>
+      <c r="F42">
+        <v>0.7891470860972862</v>
+      </c>
+      <c r="G42">
+        <v>0.2057013640468817</v>
+      </c>
+      <c r="H42">
+        <v>0.4324787717588673</v>
+      </c>
+      <c r="I42">
+        <v>0.1941599749288416</v>
+      </c>
+      <c r="J42">
+        <v>0.4451524432442894</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>0.1273487862293673</v>
+      </c>
+      <c r="C43">
+        <v>0.04630450333973575</v>
+      </c>
+      <c r="D43">
+        <v>0.5849623173407428</v>
+      </c>
+      <c r="E43">
+        <v>0.8484374385026132</v>
+      </c>
+      <c r="F43">
+        <v>0.312800145126382</v>
+      </c>
+      <c r="G43">
+        <v>0.4924727979357907</v>
+      </c>
+      <c r="H43">
+        <v>0.1829770333935032</v>
+      </c>
+      <c r="I43">
+        <v>0.4312815856628233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>0.1020880707435432</v>
+      </c>
+      <c r="C44">
+        <v>0.3096176279974082</v>
+      </c>
+      <c r="D44">
+        <v>0.7070636170015632</v>
+      </c>
+      <c r="E44">
+        <v>0.2864041604754924</v>
+      </c>
+      <c r="F44">
+        <v>0.5267620410109616</v>
+      </c>
+      <c r="G44">
+        <v>0.2247871831659499</v>
+      </c>
+      <c r="H44">
+        <v>0.5306497229122814</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>-0.0503823720025918</v>
+      </c>
+      <c r="C45">
+        <v>0.6070636170015632</v>
+      </c>
+      <c r="D45">
+        <v>0.2664041604754924</v>
+      </c>
+      <c r="E45">
+        <v>0.6279097355159999</v>
+      </c>
+      <c r="F45">
+        <v>0.3979680775074187</v>
+      </c>
+      <c r="G45">
+        <v>0.5813332769805371</v>
+      </c>
+      <c r="H45">
+        <v>-0.07991706325214298</v>
+      </c>
+      <c r="I45">
+        <v>0.535526637811788</v>
+      </c>
+      <c r="J45">
+        <v>0.2150495036779461</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46">
+        <v>0.3310636170015632</v>
+      </c>
+      <c r="C46">
+        <v>0.08037550528413179</v>
+      </c>
+      <c r="D46">
+        <v>0.4669984892513961</v>
+      </c>
+      <c r="E46">
+        <v>0.3339617829755114</v>
+      </c>
+      <c r="F46">
+        <v>0.6407790808091178</v>
+      </c>
+      <c r="G46">
+        <v>-0.01213374733938011</v>
+      </c>
+      <c r="H46">
+        <v>0.5766911554241068</v>
+      </c>
+      <c r="I46">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>-0.2961058799880114</v>
+      </c>
+      <c r="C47">
+        <v>0.2811199022592499</v>
+      </c>
+      <c r="D47">
+        <v>0.4061437322588163</v>
+      </c>
+      <c r="E47">
+        <v>0.7326419872114158</v>
+      </c>
+      <c r="F47">
+        <v>0.03212331069211072</v>
+      </c>
+      <c r="G47">
+        <v>0.6272238950261231</v>
+      </c>
+      <c r="H47">
+        <v>0.3087982760018804</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>0.3250145629684917</v>
+      </c>
+      <c r="C48">
+        <v>0.3247871831659499</v>
+      </c>
+      <c r="D48">
+        <v>0.7206497229122815</v>
+      </c>
+      <c r="E48">
+        <v>0.04831977022499523</v>
+      </c>
+      <c r="F48">
+        <v>0.6666911554241067</v>
+      </c>
+      <c r="G48">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>-0.1523883420589938</v>
+      </c>
+      <c r="C49">
+        <v>0.4106497229122814</v>
+      </c>
+      <c r="D49">
+        <v>-0.09868022977500479</v>
+      </c>
+      <c r="E49">
+        <v>0.6966911554241066</v>
+      </c>
+      <c r="F49">
+        <v>0.4476495795507702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50">
+        <v>0.4148795034612291</v>
+      </c>
+      <c r="C50">
+        <v>-0.2119161209897164</v>
+      </c>
+      <c r="D50">
+        <v>0.4271648845785767</v>
+      </c>
+      <c r="E50">
+        <v>0.1088966743764388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51">
+        <v>-0.1722430723603913</v>
+      </c>
+      <c r="C51">
+        <v>0.4775315349050862</v>
+      </c>
+      <c r="D51">
+        <v>0.1461563307127136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>0.32386998960715</v>
+      </c>
+      <c r="C52">
+        <v>0.09547648014918764</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
         <v>0.0959495356205764</v>
       </c>
     </row>

--- a/0_1_Output_Data/4_ifo_qoq_error_series_20221_21001/ifo_qoq_errors_first_eval_20221_21001.xlsx
+++ b/0_1_Output_Data/4_ifo_qoq_error_series_20221_21001/ifo_qoq_errors_first_eval_20221_21001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Q0</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>2025-08-22 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2025-11-25 00:00:00_diff</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -841,6 +844,11 @@
         <v>0.0959495356205764</v>
       </c>
     </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
